--- a/data-raw/sigbm_download_2023-06-15.xlsx
+++ b/data-raw/sigbm_download_2023-06-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234615.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/06/2023 - 09:46:41</t>
+    <t>Informação extraída do SIGBM: 15/06/2023 - 03:59:18</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -8690,7 +8690,7 @@
     <t>-43°50'22.800"</t>
   </si>
   <si>
-    <t>1.680.700,00</t>
+    <t>1.720.000,00</t>
   </si>
   <si>
     <t>Fortuna</t>
@@ -19606,7 +19606,7 @@
         <v>617</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N118" s="0" t="s">
         <v>30</v>
@@ -19665,7 +19665,7 @@
         <v>185</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N119" s="0" t="s">
         <v>30</v>
@@ -20314,7 +20314,7 @@
         <v>678</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N130" s="0" t="s">
         <v>30</v>
@@ -20373,7 +20373,7 @@
         <v>678</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N131" s="0" t="s">
         <v>30</v>
@@ -24677,7 +24677,7 @@
         <v>152</v>
       </c>
       <c r="S204" s="0" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
     </row>
     <row r="205">
@@ -25795,10 +25795,10 @@
         <v>32</v>
       </c>
       <c r="R223" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S223" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="S223" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="224">
@@ -26565,7 +26565,7 @@
         <v>152</v>
       </c>
       <c r="S236" s="0" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
     </row>
     <row r="237">
